--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6c3388bb3e9f8fa/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{256252B7-AE96-4945-BE4E-E4642B3F751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{112C67B7-19AA-4F58-95A0-84BDC7F5F2FE}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{256252B7-AE96-4945-BE4E-E4642B3F751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0558C3-F10A-4B72-8EBF-3239A1422EF9}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F29CA35F-A997-4132-929A-A5775080D411}"/>
+    <workbookView xWindow="4836" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{F29CA35F-A997-4132-929A-A5775080D411}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>UserID</t>
   </si>
@@ -94,13 +95,43 @@
   </si>
   <si>
     <t>testpetuser38541</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PetId</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ShipDate</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>2024-04-05T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>placed</t>
+  </si>
+  <si>
+    <t>2024-04-05T08:45:23.123Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +152,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000C0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,10 +196,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -179,6 +220,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87744614-BB4A-4879-AC3D-7C6EE9460AF7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -597,4 +642,167 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6306F4B4-8DD7-4A31-A5C2-61B3468F9CC5}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>